--- a/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004173075726503225</v>
+        <v>0.004263890792812544</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0136337258043327</v>
+        <v>0.01266805692673372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01059281938922071</v>
+        <v>0.0102433753288736</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02617630396843362</v>
+        <v>0.02459381164442686</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04154013394559938</v>
+        <v>0.03955432369513632</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02864685714674988</v>
+        <v>0.02794948567487128</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04467614245297576</v>
+        <v>0.04306737264562086</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.111081864981645</v>
+        <v>0.1123591838717934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08405209349469718</v>
+        <v>0.0841109072821082</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09910901666645305</v>
+        <v>0.09374716633484297</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1621926401704637</v>
+        <v>0.1637442068164144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1205904910887308</v>
+        <v>0.1193350181655858</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.1612807175903802</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2271108889684368</v>
+        <v>0.2271108889684367</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1961729321718048</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1185267803523367</v>
+        <v>0.1244445894826103</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1936883845418342</v>
+        <v>0.1952408609832142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1710842120838724</v>
+        <v>0.1725208389732848</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2045946425791297</v>
+        <v>0.2037194336956918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2659990874504953</v>
+        <v>0.2653604562382607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2246966827314147</v>
+        <v>0.2258937950271978</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1157225149456045</v>
+        <v>0.1145143609306263</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1984088083236998</v>
+        <v>0.2016808457877755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.167060316568671</v>
+        <v>0.1682373120482039</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2102330944774523</v>
+        <v>0.2122138013912236</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2722055967504839</v>
+        <v>0.2787852237245737</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.230827104136168</v>
+        <v>0.232425782552623</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02177944818002817</v>
+        <v>0.02116747870720609</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05076341735801397</v>
+        <v>0.05114444704977768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04279291364324911</v>
+        <v>0.04169517529358274</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06233524229765487</v>
+        <v>0.06561054289023632</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09418034787676373</v>
+        <v>0.09529907263529405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07348550727925532</v>
+        <v>0.07106465864520629</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1257388659489664</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2306105405308441</v>
+        <v>0.230610540530844</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1774921795921249</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09603442966563337</v>
+        <v>0.09325179646904869</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.195500240839501</v>
+        <v>0.1937890913144553</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1524386666523688</v>
+        <v>0.1531859275312985</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1665661080221799</v>
+        <v>0.1641997748620432</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.274542393467451</v>
+        <v>0.2742674190417159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2032385920007496</v>
+        <v>0.2032909481278955</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.2565601371626098</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.210838699069881</v>
+        <v>0.2108386990698811</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1314570042510381</v>
+        <v>0.1308251653532406</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2300820811379726</v>
+        <v>0.2291682801009151</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1901882000058586</v>
+        <v>0.1892946661918555</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1938630937339423</v>
+        <v>0.1934503225239834</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2872023127542427</v>
+        <v>0.2843750650725606</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2353080003706777</v>
+        <v>0.2314271986621891</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1638569892106439</v>
+        <v>0.166199135720053</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2653605704876156</v>
+        <v>0.2659848948502277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2246556980366745</v>
+        <v>0.2227366942249499</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2189444099308964</v>
+        <v>0.2176621410179998</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3193397953791297</v>
+        <v>0.320475803386797</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2600687227784328</v>
+        <v>0.2607574183257994</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.1296060271455767</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.208222124193384</v>
+        <v>0.2082221241933839</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.170018162692412</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1184468295219726</v>
+        <v>0.1185745432928703</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1969858243523966</v>
+        <v>0.1974166045319189</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1618698622266378</v>
+        <v>0.160815124806613</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1426650523473871</v>
+        <v>0.1421486475217037</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2200274891240126</v>
+        <v>0.2198950086213996</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1781401317345386</v>
+        <v>0.1786375909643597</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1331</v>
+        <v>1360</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4309</v>
+        <v>4004</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6725</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8346</v>
+        <v>7842</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13129</v>
+        <v>12502</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18188</v>
+        <v>17745</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23707</v>
+        <v>22854</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60706</v>
+        <v>61404</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>90536</v>
+        <v>90599</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52592</v>
+        <v>49747</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88637</v>
+        <v>89485</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129893</v>
+        <v>128541</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37454</v>
+        <v>39324</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>69027</v>
+        <v>69580</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>115033</v>
+        <v>115999</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64650</v>
+        <v>64374</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94797</v>
+        <v>94569</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151080</v>
+        <v>151885</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43181</v>
+        <v>42730</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83721</v>
+        <v>85101</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>132831</v>
+        <v>133767</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>78447</v>
+        <v>79187</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>114860</v>
+        <v>117636</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>183532</v>
+        <v>184803</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4479</v>
+        <v>4353</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11621</v>
+        <v>11708</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18597</v>
+        <v>18120</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12820</v>
+        <v>13494</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21560</v>
+        <v>21816</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31935</v>
+        <v>30883</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25997</v>
+        <v>25244</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>51563</v>
+        <v>51112</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>81472</v>
+        <v>81871</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>45091</v>
+        <v>44450</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>72411</v>
+        <v>72338</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>108622</v>
+        <v>108650</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>94608</v>
+        <v>94153</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>177636</v>
+        <v>176931</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>283712</v>
+        <v>282379</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>139521</v>
+        <v>139224</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>221737</v>
+        <v>219554</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>351019</v>
+        <v>345230</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>130770</v>
+        <v>132639</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>220602</v>
+        <v>221121</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>366055</v>
+        <v>362928</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>174733</v>
+        <v>173710</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>265477</v>
+        <v>266421</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>423757</v>
+        <v>424879</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>418444</v>
+        <v>418896</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>736127</v>
+        <v>737737</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1176748</v>
+        <v>1169080</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>504002</v>
+        <v>502177</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>822233</v>
+        <v>821738</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1295028</v>
+        <v>1298645</v>
       </c>
     </row>
     <row r="40">
